--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1755,6 +1755,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1768,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2144,8 +2150,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2623,8 +2730,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3640,6 +3900,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3647,7 +4233,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3878,52 +4464,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4779,7 +5413,7 @@
         <v>430</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>563</v>
       </c>
       <c r="H5" t="s">
         <v>457</v>
@@ -4853,7 +5487,7 @@
         <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>445</v>
@@ -4915,7 +5549,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
         <v>444</v>
@@ -4977,7 +5611,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -5033,7 +5667,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -5077,7 +5711,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>449</v>
@@ -5118,7 +5752,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -5156,7 +5790,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -5194,7 +5828,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -5229,7 +5863,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -5264,7 +5898,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>484</v>
@@ -5296,7 +5930,7 @@
         <v>382</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -5328,7 +5962,7 @@
         <v>383</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -5354,7 +5988,7 @@
         <v>412</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>460</v>
@@ -5377,7 +6011,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -5397,7 +6031,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -5417,7 +6051,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>377</v>
@@ -5437,7 +6071,7 @@
         <v>508</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>467</v>
@@ -5457,7 +6091,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -5477,7 +6111,7 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>389</v>
@@ -5497,7 +6131,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>515</v>
@@ -5517,7 +6151,7 @@
         <v>446</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -5537,7 +6171,7 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>431</v>
@@ -5557,7 +6191,7 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -5574,7 +6208,7 @@
         <v>465</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -5591,7 +6225,7 @@
         <v>466</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
         <v>113</v>
@@ -5602,7 +6236,7 @@
         <v>413</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
         <v>114</v>
@@ -5613,7 +6247,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
         <v>115</v>
@@ -5624,7 +6258,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
         <v>116</v>
@@ -5635,7 +6269,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
         <v>559</v>
@@ -5646,7 +6280,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
         <v>117</v>
@@ -5657,7 +6291,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
         <v>118</v>
@@ -5668,7 +6302,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
         <v>208</v>
@@ -5679,7 +6313,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
         <v>119</v>
@@ -5690,7 +6324,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
         <v>336</v>
@@ -5698,7 +6332,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
         <v>435</v>
@@ -5706,7 +6340,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>529</v>
@@ -5714,7 +6348,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>509</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
         <v>390</v>
@@ -5722,7 +6356,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>509</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
@@ -5730,7 +6364,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
         <v>121</v>
@@ -5738,7 +6372,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
         <v>122</v>
@@ -5746,7 +6380,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
         <v>123</v>
@@ -5754,7 +6388,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
         <v>124</v>
@@ -5762,7 +6396,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
         <v>125</v>
@@ -5770,7 +6404,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
         <v>436</v>
@@ -5778,7 +6412,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
         <v>211</v>
@@ -5786,7 +6420,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -5794,7 +6428,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="Y52" t="s">
         <v>530</v>
@@ -5802,7 +6436,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
         <v>126</v>
@@ -5810,7 +6444,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="Y54" t="s">
         <v>127</v>
@@ -5818,7 +6452,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
         <v>128</v>
@@ -5826,7 +6460,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
         <v>492</v>
@@ -5834,7 +6468,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
         <v>461</v>
@@ -5842,7 +6476,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>510</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
         <v>129</v>
@@ -5850,7 +6484,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="Y59" t="s">
         <v>344</v>
@@ -5858,7 +6492,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
         <v>462</v>
@@ -5866,7 +6500,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
         <v>130</v>
@@ -5874,7 +6508,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
         <v>131</v>
@@ -5882,7 +6516,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
         <v>132</v>
@@ -5890,7 +6524,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
         <v>133</v>
@@ -5898,7 +6532,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
         <v>134</v>
@@ -5906,7 +6540,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y66" t="s">
         <v>135</v>
@@ -5914,7 +6548,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="Y67" t="s">
         <v>136</v>
@@ -5922,7 +6556,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
         <v>437</v>
@@ -5930,7 +6564,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
         <v>470</v>
@@ -5938,7 +6572,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>511</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
         <v>212</v>
@@ -5946,7 +6580,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>511</v>
       </c>
       <c r="Y71" t="s">
         <v>386</v>
@@ -5954,7 +6588,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
         <v>438</v>
@@ -5962,7 +6596,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="Y73" t="s">
         <v>137</v>
@@ -5970,7 +6604,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
         <v>138</v>
@@ -5978,7 +6612,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>260</v>
+        <v>408</v>
       </c>
       <c r="Y75" t="s">
         <v>139</v>
@@ -5986,7 +6620,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
         <v>140</v>
@@ -5994,7 +6628,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>342</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
         <v>195</v>
@@ -6002,7 +6636,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
         <v>196</v>
@@ -6010,7 +6644,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
         <v>450</v>
@@ -6018,7 +6652,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
         <v>463</v>
@@ -6026,7 +6660,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
         <v>141</v>
@@ -6034,7 +6668,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="Y82" t="s">
         <v>142</v>
@@ -6042,7 +6676,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
         <v>143</v>
@@ -6050,7 +6684,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
         <v>493</v>
@@ -6058,7 +6692,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
         <v>144</v>
@@ -6066,7 +6700,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
         <v>145</v>
@@ -6074,7 +6708,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>512</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
         <v>197</v>
@@ -6082,7 +6716,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>512</v>
       </c>
       <c r="Y88" t="s">
         <v>494</v>
@@ -6090,7 +6724,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
         <v>198</v>
@@ -6098,7 +6732,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
         <v>451</v>
@@ -6106,7 +6740,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
         <v>199</v>
@@ -6114,7 +6748,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
         <v>200</v>
@@ -6122,15 +6756,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y94" t="s">
         <v>213</v>
@@ -6138,7 +6772,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y95" t="s">
         <v>146</v>
@@ -6146,7 +6780,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y96" t="s">
         <v>201</v>
@@ -6154,13 +6788,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y97" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
       <c r="Y98" t="s">
         <v>440</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1761,6 +1761,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1771,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2251,8 +2254,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2883,8 +2987,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4226,6 +4483,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4233,7 +4816,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="119">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4512,52 +5095,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5032,7 +5663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6767,7 +7398,7 @@
         <v>309</v>
       </c>
       <c r="Y94" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95">
@@ -6775,7 +7406,7 @@
         <v>293</v>
       </c>
       <c r="Y95" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -6783,7 +7414,7 @@
         <v>338</v>
       </c>
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -6791,7 +7422,7 @@
         <v>275</v>
       </c>
       <c r="Y97" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
@@ -6799,181 +7430,186 @@
         <v>276</v>
       </c>
       <c r="Y98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>495</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>532</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>380</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>441</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>161</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>561</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -20,38 +20,39 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1764,6 +1765,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2355,8 +2374,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3140,8 +3260,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4809,6 +5082,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4816,7 +5415,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5143,52 +5742,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5663,7 +6310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5688,81 +6335,84 @@
         <v>473</v>
       </c>
       <c r="E1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>506</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>474</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>393</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>409</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>410</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>354</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>394</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>411</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5780,81 +6430,84 @@
         <v>475</v>
       </c>
       <c r="E2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>447</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>458</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>381</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>432</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>518</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>485</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>414</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>427</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>395</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>416</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>417</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>378</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>404</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>429</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5871,76 +6524,76 @@
       <c r="D3" t="s">
         <v>507</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>455</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>362</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>480</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>332</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>519</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>486</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>428</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>396</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>418</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>379</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>405</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>361</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5954,82 +6607,82 @@
       <c r="D4" t="s">
         <v>476</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>384</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>448</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>481</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>333</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>520</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>487</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>397</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>419</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>406</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>351</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>421</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
         <v>372</v>
@@ -6037,73 +6690,73 @@
       <c r="D5" t="s">
         <v>477</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>456</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>430</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>563</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>457</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>513</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>349</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>459</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>521</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>398</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>420</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
-        <v>352</v>
-      </c>
       <c r="Z5" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>422</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>373</v>
@@ -6111,1505 +6764,1513 @@
       <c r="D6" t="s">
         <v>478</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>479</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>445</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>346</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>522</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>388</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>399</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>358</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>442</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>423</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>374</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>385</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>444</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>514</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>313</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>523</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>415</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>400</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>357</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>443</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>424</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>375</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>363</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>326</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>482</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>524</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>401</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>359</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>425</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>376</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>364</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>525</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>402</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>360</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>449</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>526</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>434</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>403</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>568</v>
+      </c>
+      <c r="H11" t="s">
         <v>350</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>483</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>468</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>527</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>317</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>272</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>387</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>516</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>528</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>433</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>506</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>469</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E15" t="s">
+        <v>506</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>262</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>484</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>488</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" t="s">
         <v>382</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>517</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>489</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>383</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>315</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>490</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>464</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>412</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>460</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>393</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>377</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>410</v>
-      </c>
-      <c r="E22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" t="s">
         <v>508</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>467</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>491</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>354</v>
-      </c>
-      <c r="E23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" t="s">
         <v>319</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>389</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>558</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>277</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>515</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>446</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>431</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>465</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>466</v>
-      </c>
-      <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>413</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>529</v>
+      <c r="Z41" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>509</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>365</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>353</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>510</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>366</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>367</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>511</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>407</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>408</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>426</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>512</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1790,7 +1790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2475,8 +2475,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3413,8 +3514,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5408,6 +5662,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5415,7 +5995,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="151">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5790,52 +6370,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1783,6 +1783,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1796,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2576,8 +2582,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3667,8 +3875,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -5988,6 +6502,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5995,7 +7161,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6418,52 +7584,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7897,7 +9159,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>572</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -7920,7 +9182,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>412</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -7940,7 +9202,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -7960,13 +9222,13 @@
         <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>377</v>
+        <v>573</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -7980,7 +9242,7 @@
         <v>409</v>
       </c>
       <c r="F22" t="s">
-        <v>508</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -8000,7 +9262,7 @@
         <v>410</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>508</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -8020,7 +9282,7 @@
         <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -8040,7 +9302,7 @@
         <v>394</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -8060,7 +9322,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -8080,7 +9342,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -8100,7 +9362,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -8117,7 +9379,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -8134,7 +9396,7 @@
         <v>411</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -8148,7 +9410,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -8159,7 +9421,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -8170,7 +9432,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -8181,7 +9443,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -8192,7 +9454,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -8203,7 +9465,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -8214,7 +9476,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -8225,7 +9487,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -8236,7 +9498,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -8246,6 +9508,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -20,15 +20,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6247" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1789,6 +1789,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1811,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2784,8 +2799,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4181,8 +4297,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7154,6 +7423,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7161,7 +7756,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="199">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7680,52 +8275,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8200,7 +8843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8516,7 +9159,7 @@
         <v>348</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>575</v>
       </c>
       <c r="M4" t="s">
         <v>333</v>
@@ -8552,7 +9195,7 @@
         <v>406</v>
       </c>
       <c r="Z4" t="s">
-        <v>351</v>
+        <v>576</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -8599,7 +9242,7 @@
         <v>349</v>
       </c>
       <c r="L5" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -8666,11 +9309,14 @@
       <c r="I6" t="s">
         <v>445</v>
       </c>
+      <c r="J6" t="s">
+        <v>574</v>
+      </c>
       <c r="K6" t="s">
         <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>459</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -8732,7 +9378,7 @@
         <v>514</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>313</v>
@@ -8791,7 +9437,7 @@
         <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -8847,7 +9493,7 @@
         <v>327</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -8891,7 +9537,7 @@
         <v>449</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -8932,7 +9578,7 @@
         <v>320</v>
       </c>
       <c r="L11" t="s">
-        <v>483</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>468</v>
@@ -8970,7 +9616,7 @@
         <v>321</v>
       </c>
       <c r="L12" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="N12" t="s">
         <v>516</v>
@@ -9008,7 +9654,7 @@
         <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="N13" t="s">
         <v>433</v>
@@ -9043,7 +9689,7 @@
         <v>323</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>469</v>
@@ -9075,7 +9721,7 @@
         <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -9107,7 +9753,7 @@
         <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="N16" t="s">
         <v>517</v>
@@ -9139,7 +9785,7 @@
         <v>315</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -9159,13 +9805,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>572</v>
+        <v>412</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -9182,13 +9828,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>412</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -9202,13 +9848,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -9222,13 +9868,13 @@
         <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>573</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -9242,13 +9888,13 @@
         <v>409</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>508</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
       </c>
       <c r="L22" t="s">
-        <v>467</v>
+        <v>573</v>
       </c>
       <c r="Z22" t="s">
         <v>491</v>
@@ -9262,13 +9908,13 @@
         <v>410</v>
       </c>
       <c r="F23" t="s">
-        <v>508</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>467</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -9282,13 +9928,13 @@
         <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
       </c>
       <c r="L24" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>558</v>
@@ -9302,13 +9948,13 @@
         <v>394</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -9322,13 +9968,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>446</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>515</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -9342,13 +9988,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -9362,13 +10008,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -9379,13 +10025,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>465</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>325</v>
@@ -9396,10 +10042,13 @@
         <v>411</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -9410,7 +10059,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -9421,7 +10070,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>413</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -9432,7 +10081,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -9443,7 +10092,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -9454,7 +10103,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -9465,7 +10114,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -9476,7 +10125,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -9487,7 +10136,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -9498,7 +10147,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -9508,9 +10157,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
@@ -9984,186 +10630,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>440</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>495</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>571</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>380</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>441</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6247" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1811,7 +1811,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2900,8 +2900,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4450,8 +4551,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -7749,6 +8003,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7756,7 +8336,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="215">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8323,52 +8903,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1804,6 +1804,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1814,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3001,8 +3004,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4704,8 +4909,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -8329,6 +8840,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8336,7 +9499,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8951,52 +10114,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9471,7 +10730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11181,7 +12440,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90">
@@ -11189,7 +12448,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>451</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -11197,7 +12456,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92">
@@ -11205,7 +12464,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -11213,7 +12472,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>564</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -11221,7 +12480,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95">
@@ -11229,7 +12488,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96">
@@ -11237,7 +12496,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -11245,7 +12504,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -11253,201 +12512,206 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>495</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>532</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>380</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>441</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>561</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1814,7 +1814,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3206,8 +3206,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5215,8 +5316,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9492,6 +9746,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9499,7 +10079,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10210,52 +10790,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -38,7 +38,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -46,9 +46,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9088" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1807,6 +1807,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1844,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3307,8 +3337,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5469,8 +5600,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -10072,6 +10356,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10079,7 +10689,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="279">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10838,52 +11448,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="363" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11358,7 +12016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11790,7 +12448,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>588</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -11861,7 +12519,7 @@
         <v>442</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -11923,7 +12581,7 @@
         <v>443</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -11979,7 +12637,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -12031,6 +12689,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -12049,7 +12710,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -12071,6 +12732,9 @@
       </c>
       <c r="Z10" t="s">
         <v>255</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>589</v>
       </c>
       <c r="AC10" t="s">
         <v>188</v>
@@ -12090,7 +12754,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -12128,7 +12792,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
         <v>483</v>
@@ -12166,7 +12830,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>387</v>
@@ -12178,7 +12842,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>581</v>
       </c>
       <c r="Z13" t="s">
         <v>324</v>
@@ -12201,7 +12865,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -12213,7 +12877,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -12235,6 +12899,9 @@
       <c r="H15" t="s">
         <v>262</v>
       </c>
+      <c r="I15" t="s">
+        <v>323</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -12245,10 +12912,10 @@
         <v>488</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>582</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -12277,10 +12944,10 @@
         <v>489</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -12305,8 +12972,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>250</v>
+      </c>
       <c r="Z17" t="s">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>464</v>
@@ -12332,7 +13002,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="AE18" t="s">
         <v>472</v>
@@ -12352,7 +13022,7 @@
         <v>460</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>501</v>
@@ -12372,7 +13042,7 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>502</v>
@@ -12392,7 +13062,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>503</v>
@@ -12412,7 +13082,7 @@
         <v>573</v>
       </c>
       <c r="Z22" t="s">
-        <v>491</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
@@ -12432,7 +13102,7 @@
         <v>467</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>491</v>
       </c>
       <c r="AE23" t="s">
         <v>536</v>
@@ -12452,7 +13122,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>558</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>537</v>
@@ -12472,7 +13142,7 @@
         <v>389</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>558</v>
       </c>
       <c r="AE25" t="s">
         <v>538</v>
@@ -12492,7 +13162,7 @@
         <v>515</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>234</v>
@@ -12512,7 +13182,7 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>235</v>
@@ -12532,7 +13202,7 @@
         <v>431</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -12549,7 +13219,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -12566,7 +13236,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31">
@@ -12580,7 +13250,7 @@
         <v>214</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -12591,7 +13261,7 @@
         <v>273</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -12602,7 +13272,7 @@
         <v>283</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -12613,7 +13283,7 @@
         <v>504</v>
       </c>
       <c r="Z34" t="s">
-        <v>559</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -12624,7 +13294,7 @@
         <v>258</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36">
@@ -12635,7 +13305,7 @@
         <v>328</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -12646,7 +13316,7 @@
         <v>305</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -12657,7 +13327,7 @@
         <v>259</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -12668,7 +13338,7 @@
         <v>306</v>
       </c>
       <c r="Z39" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -12676,7 +13346,7 @@
         <v>265</v>
       </c>
       <c r="Z40" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
@@ -12684,7 +13354,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>570</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42">
@@ -12692,7 +13362,7 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>390</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43">
@@ -12700,7 +13370,7 @@
         <v>509</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
@@ -12708,7 +13378,7 @@
         <v>287</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -12716,7 +13386,7 @@
         <v>298</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -12724,7 +13394,7 @@
         <v>299</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -12732,7 +13402,7 @@
         <v>341</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -12740,7 +13410,7 @@
         <v>340</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -12748,7 +13418,7 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>436</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -12756,7 +13426,7 @@
         <v>318</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
@@ -12764,7 +13434,7 @@
         <v>337</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -12772,7 +13442,7 @@
         <v>365</v>
       </c>
       <c r="Z52" t="s">
-        <v>530</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -12780,7 +13450,7 @@
         <v>300</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54">
@@ -12788,7 +13458,7 @@
         <v>353</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -12796,7 +13466,7 @@
         <v>329</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -12804,7 +13474,7 @@
         <v>266</v>
       </c>
       <c r="Z56" t="s">
-        <v>492</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -12812,7 +13482,7 @@
         <v>290</v>
       </c>
       <c r="Z57" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
@@ -12820,7 +13490,7 @@
         <v>291</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59">
@@ -12828,7 +13498,7 @@
         <v>510</v>
       </c>
       <c r="Z59" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -12836,7 +13506,7 @@
         <v>292</v>
       </c>
       <c r="Z60" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
@@ -12844,7 +13514,7 @@
         <v>301</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62">
@@ -12852,7 +13522,7 @@
         <v>310</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -12860,7 +13530,7 @@
         <v>335</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -12868,7 +13538,7 @@
         <v>307</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -12876,7 +13546,7 @@
         <v>308</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -12884,7 +13554,7 @@
         <v>366</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -12892,7 +13562,7 @@
         <v>367</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -12900,7 +13570,7 @@
         <v>343</v>
       </c>
       <c r="Z68" t="s">
-        <v>437</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -12908,7 +13578,7 @@
         <v>311</v>
       </c>
       <c r="Z69" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70">
@@ -12916,7 +13586,7 @@
         <v>267</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71">
@@ -12924,7 +13594,7 @@
         <v>511</v>
       </c>
       <c r="Z71" t="s">
-        <v>386</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -12932,7 +13602,7 @@
         <v>312</v>
       </c>
       <c r="Z72" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73">
@@ -12940,7 +13610,7 @@
         <v>407</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74">
@@ -12948,7 +13618,7 @@
         <v>302</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -12956,7 +13626,7 @@
         <v>408</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -12964,7 +13634,7 @@
         <v>260</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -12972,7 +13642,7 @@
         <v>505</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -12980,7 +13650,7 @@
         <v>342</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -12988,7 +13658,7 @@
         <v>278</v>
       </c>
       <c r="Z79" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -12996,7 +13666,7 @@
         <v>284</v>
       </c>
       <c r="Z80" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81">
@@ -13004,7 +13674,7 @@
         <v>289</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82">
@@ -13012,7 +13682,7 @@
         <v>426</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -13020,7 +13690,7 @@
         <v>330</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -13028,7 +13698,7 @@
         <v>268</v>
       </c>
       <c r="Z84" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -13036,7 +13706,7 @@
         <v>279</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86">
@@ -13044,7 +13714,7 @@
         <v>285</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
@@ -13052,7 +13722,7 @@
         <v>274</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -13060,7 +13730,7 @@
         <v>512</v>
       </c>
       <c r="Z88" t="s">
-        <v>494</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -13068,7 +13738,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90">
@@ -13076,7 +13746,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>198</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91">
@@ -13084,7 +13754,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>451</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -13092,7 +13762,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93">
@@ -13100,7 +13770,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -13108,7 +13778,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>564</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -13116,7 +13786,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96">
@@ -13124,7 +13794,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
@@ -13132,7 +13802,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -13140,206 +13810,236 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>571</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>380</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>148</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>155</v>
+        <v>585</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>441</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>561</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>441</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>165</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>
@@ -13779,7 +14479,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>543</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9088" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9665" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1837,6 +1837,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1850,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3438,8 +3444,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5753,8 +5860,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="483">
+  <borders count="515">
     <border>
       <left/>
       <right/>
@@ -10682,6 +10942,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10689,7 +11275,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="295">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11496,52 +12082,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="384" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="387" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="390" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="393" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="399" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="390" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="402" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="402" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="411" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="414" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="417" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="420" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="426" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="417" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12710,7 +13344,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -12754,7 +13388,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>449</v>
+        <v>591</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -12792,7 +13426,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="L12" t="s">
         <v>483</v>
@@ -12830,7 +13464,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>387</v>
@@ -12865,7 +13499,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -12900,7 +13534,7 @@
         <v>262</v>
       </c>
       <c r="I15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -12933,6 +13567,9 @@
       </c>
       <c r="H16" t="s">
         <v>263</v>
+      </c>
+      <c r="I16" t="s">
+        <v>323</v>
       </c>
       <c r="L16" t="s">
         <v>484</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -45,14 +45,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9665" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10835" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1843,6 +1844,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1878,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3545,8 +3573,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6013,8 +6243,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="515">
+  <borders count="579">
     <border>
       <left/>
       <right/>
@@ -11268,6 +11804,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11275,7 +12463,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="327">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12130,52 +13318,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="411" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="411" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="414" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="414" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="417" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="417" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="420" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="420" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="426" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="426" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="417" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="417" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="429" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="429" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="438" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="441" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="444" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="447" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="453" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="444" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="456" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="456" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="465" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="468" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="471" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="474" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="480" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="471" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12650,7 +13934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12738,21 +14022,24 @@
         <v>394</v>
       </c>
       <c r="Z1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>411</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12788,7 +14075,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>458</v>
+        <v>599</v>
       </c>
       <c r="L2" t="s">
         <v>313</v>
@@ -12833,21 +14120,24 @@
         <v>404</v>
       </c>
       <c r="Z2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>429</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -12919,21 +14209,24 @@
         <v>405</v>
       </c>
       <c r="Z3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>361</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13002,21 +14295,24 @@
         <v>406</v>
       </c>
       <c r="Z4" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA4" t="s">
         <v>576</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>421</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13076,21 +14372,24 @@
         <v>356</v>
       </c>
       <c r="Z5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA5" t="s">
         <v>569</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>588</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>422</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -13120,7 +14419,7 @@
         <v>574</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>600</v>
       </c>
       <c r="L6" t="s">
         <v>459</v>
@@ -13147,21 +14446,24 @@
         <v>358</v>
       </c>
       <c r="Z6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>442</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>423</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -13182,7 +14484,7 @@
         <v>444</v>
       </c>
       <c r="K7" t="s">
-        <v>514</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -13208,22 +14510,22 @@
       <c r="X7" t="s">
         <v>357</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>443</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>424</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -13243,6 +14545,9 @@
       <c r="I8" t="s">
         <v>326</v>
       </c>
+      <c r="K8" t="s">
+        <v>514</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -13264,22 +14569,22 @@
       <c r="X8" t="s">
         <v>359</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>425</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -13320,16 +14625,16 @@
       <c r="X9" t="s">
         <v>360</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -13364,16 +14669,16 @@
       <c r="U10" t="s">
         <v>403</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>589</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -13405,13 +14710,13 @@
       <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -13443,13 +14748,13 @@
       <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13478,13 +14783,13 @@
       <c r="S13" t="s">
         <v>581</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13513,13 +14818,13 @@
       <c r="S14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -13548,13 +14853,13 @@
       <c r="S15" t="s">
         <v>248</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>582</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>498</v>
       </c>
     </row>
@@ -13583,13 +14888,13 @@
       <c r="S16" t="s">
         <v>249</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>499</v>
       </c>
     </row>
@@ -13612,13 +14917,13 @@
       <c r="S17" t="s">
         <v>250</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>464</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13638,10 +14943,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>490</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>472</v>
       </c>
     </row>
@@ -13658,10 +14963,10 @@
       <c r="L19" t="s">
         <v>460</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -13678,10 +14983,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13698,10 +15003,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -13718,10 +15023,10 @@
       <c r="L22" t="s">
         <v>573</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>107</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -13738,10 +15043,10 @@
       <c r="L23" t="s">
         <v>467</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>491</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>536</v>
       </c>
     </row>
@@ -13758,10 +15063,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>537</v>
       </c>
     </row>
@@ -13778,16 +15083,16 @@
       <c r="L25" t="s">
         <v>389</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>558</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>592</v>
       </c>
       <c r="F26" t="s">
         <v>446</v>
@@ -13798,16 +15103,16 @@
       <c r="L26" t="s">
         <v>515</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -13818,16 +15123,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>224</v>
@@ -13838,13 +15143,13 @@
       <c r="L28" t="s">
         <v>431</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>465</v>
@@ -13855,13 +15160,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>466</v>
@@ -13872,13 +15177,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>411</v>
       </c>
       <c r="F31" t="s">
         <v>413</v>
@@ -13886,18 +15191,21 @@
       <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -13908,7 +15216,7 @@
       <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -13919,7 +15227,7 @@
       <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -13930,7 +15238,7 @@
       <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>559</v>
       </c>
     </row>
@@ -13941,7 +15249,7 @@
       <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -13952,7 +15260,7 @@
       <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>118</v>
       </c>
     </row>
@@ -13963,7 +15271,7 @@
       <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -13974,7 +15282,7 @@
       <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13982,7 +15290,7 @@
       <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>336</v>
       </c>
     </row>
@@ -13990,7 +15298,7 @@
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>435</v>
       </c>
     </row>
@@ -13998,7 +15306,7 @@
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>570</v>
       </c>
     </row>
@@ -14006,7 +15314,7 @@
       <c r="H43" t="s">
         <v>509</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>390</v>
       </c>
     </row>
@@ -14014,7 +15322,7 @@
       <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -14022,7 +15330,7 @@
       <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -14030,7 +15338,7 @@
       <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14038,7 +15346,7 @@
       <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -14046,7 +15354,7 @@
       <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -14054,7 +15362,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14062,7 +15370,7 @@
       <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>436</v>
       </c>
     </row>
@@ -14070,7 +15378,7 @@
       <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -14078,7 +15386,7 @@
       <c r="H52" t="s">
         <v>365</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -14086,7 +15394,7 @@
       <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>530</v>
       </c>
     </row>
@@ -14094,7 +15402,7 @@
       <c r="H54" t="s">
         <v>353</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>126</v>
       </c>
     </row>
@@ -14102,7 +15410,7 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14110,7 +15418,7 @@
       <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -14118,7 +15426,7 @@
       <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>492</v>
       </c>
     </row>
@@ -14126,7 +15434,7 @@
       <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>461</v>
       </c>
     </row>
@@ -14134,7 +15442,7 @@
       <c r="H59" t="s">
         <v>510</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -14142,7 +15450,7 @@
       <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>344</v>
       </c>
     </row>
@@ -14150,7 +15458,7 @@
       <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>462</v>
       </c>
     </row>
@@ -14158,7 +15466,7 @@
       <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -14166,7 +15474,7 @@
       <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -14174,7 +15482,7 @@
       <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -14182,7 +15490,7 @@
       <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -14190,7 +15498,7 @@
       <c r="H66" t="s">
         <v>366</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -14198,7 +15506,7 @@
       <c r="H67" t="s">
         <v>367</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -14206,7 +15514,7 @@
       <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14214,7 +15522,7 @@
       <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>437</v>
       </c>
     </row>
@@ -14222,7 +15530,7 @@
       <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>470</v>
       </c>
     </row>
@@ -14230,7 +15538,7 @@
       <c r="H71" t="s">
         <v>511</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -14238,7 +15546,7 @@
       <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>386</v>
       </c>
     </row>
@@ -14246,7 +15554,7 @@
       <c r="H73" t="s">
         <v>407</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>438</v>
       </c>
     </row>
@@ -14254,7 +15562,7 @@
       <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>137</v>
       </c>
     </row>
@@ -14262,7 +15570,7 @@
       <c r="H75" t="s">
         <v>408</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -14270,7 +15578,7 @@
       <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14278,7 +15586,7 @@
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -14286,7 +15594,7 @@
       <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>195</v>
       </c>
     </row>
@@ -14294,7 +15602,7 @@
       <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -14302,7 +15610,7 @@
       <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>450</v>
       </c>
     </row>
@@ -14310,7 +15618,7 @@
       <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>463</v>
       </c>
     </row>
@@ -14318,7 +15626,7 @@
       <c r="H82" t="s">
         <v>426</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>141</v>
       </c>
     </row>
@@ -14326,7 +15634,7 @@
       <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -14334,7 +15642,7 @@
       <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14342,7 +15650,7 @@
       <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>493</v>
       </c>
     </row>
@@ -14350,7 +15658,7 @@
       <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -14358,7 +15666,7 @@
       <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>145</v>
       </c>
     </row>
@@ -14366,7 +15674,7 @@
       <c r="H88" t="s">
         <v>512</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -14374,7 +15682,7 @@
       <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>494</v>
       </c>
     </row>
@@ -14382,7 +15690,7 @@
       <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>579</v>
       </c>
     </row>
@@ -14390,7 +15698,7 @@
       <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>198</v>
       </c>
     </row>
@@ -14398,7 +15706,7 @@
       <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>451</v>
       </c>
     </row>
@@ -14406,7 +15714,7 @@
       <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -14414,7 +15722,7 @@
       <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>200</v>
       </c>
     </row>
@@ -14422,7 +15730,7 @@
       <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>564</v>
       </c>
     </row>
@@ -14430,7 +15738,7 @@
       <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>565</v>
       </c>
     </row>
@@ -14438,7 +15746,7 @@
       <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -14446,237 +15754,237 @@
       <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -31,7 +31,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -39,14 +39,14 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -54,6 +54,7 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10835" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11422" uniqueCount="611">
   <si>
     <t>description</t>
   </si>
@@ -1871,6 +1872,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1909,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3775,8 +3806,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6549,8 +6681,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="579">
+  <borders count="611">
     <border>
       <left/>
       <right/>
@@ -12456,6 +12741,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12463,7 +13074,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="343">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13414,52 +14025,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="465" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="465" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="468" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="468" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="471" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="471" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="474" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="474" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="480" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="480" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="471" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="471" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="483" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="483" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="492" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="495" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="498" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="501" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="507" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="498" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="510" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="510" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13934,7 +14593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14022,7 +14681,7 @@
         <v>394</v>
       </c>
       <c r="Z1" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -14102,7 +14761,7 @@
         <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>603</v>
       </c>
       <c r="U2" t="s">
         <v>395</v>
@@ -14120,7 +14779,7 @@
         <v>404</v>
       </c>
       <c r="Z2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -14194,7 +14853,7 @@
         <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>604</v>
       </c>
       <c r="U3" t="s">
         <v>396</v>
@@ -14209,7 +14868,7 @@
         <v>405</v>
       </c>
       <c r="Z3" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -14280,7 +14939,7 @@
         <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
         <v>397</v>
@@ -14295,7 +14954,7 @@
         <v>406</v>
       </c>
       <c r="Z4" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="AA4" t="s">
         <v>576</v>
@@ -14360,7 +15019,7 @@
         <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U5" t="s">
         <v>398</v>
@@ -14370,9 +15029,6 @@
       </c>
       <c r="X5" t="s">
         <v>356</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>597</v>
       </c>
       <c r="AA5" t="s">
         <v>569</v>
@@ -14437,16 +15093,13 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="U6" t="s">
         <v>399</v>
       </c>
       <c r="X6" t="s">
         <v>358</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>598</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -14502,7 +15155,7 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="U7" t="s">
         <v>400</v>
@@ -14563,6 +15216,9 @@
       <c r="S8" t="s">
         <v>243</v>
       </c>
+      <c r="T8" t="s">
+        <v>388</v>
+      </c>
       <c r="U8" t="s">
         <v>401</v>
       </c>
@@ -14619,6 +15275,9 @@
       <c r="S9" t="s">
         <v>244</v>
       </c>
+      <c r="T9" t="s">
+        <v>415</v>
+      </c>
       <c r="U9" t="s">
         <v>402</v>
       </c>
@@ -14740,7 +15399,7 @@
         <v>516</v>
       </c>
       <c r="O12" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -14777,6 +15436,9 @@
       <c r="N13" t="s">
         <v>433</v>
       </c>
+      <c r="O13" t="s">
+        <v>528</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -14854,7 +15516,7 @@
         <v>248</v>
       </c>
       <c r="AA15" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -14889,7 +15551,7 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>582</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -14918,7 +15580,7 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>464</v>
@@ -14944,7 +15606,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>472</v>
@@ -14964,7 +15626,7 @@
         <v>460</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="AF19" t="s">
         <v>501</v>
@@ -14984,7 +15646,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>502</v>
@@ -15004,7 +15666,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>503</v>
@@ -15024,7 +15686,7 @@
         <v>573</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>233</v>
@@ -15044,7 +15706,7 @@
         <v>467</v>
       </c>
       <c r="AA23" t="s">
-        <v>491</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>536</v>
@@ -15064,7 +15726,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>491</v>
       </c>
       <c r="AF24" t="s">
         <v>537</v>
@@ -15084,7 +15746,7 @@
         <v>389</v>
       </c>
       <c r="AA25" t="s">
-        <v>558</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>538</v>
@@ -15092,7 +15754,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="F26" t="s">
         <v>446</v>
@@ -15104,7 +15766,7 @@
         <v>515</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>558</v>
       </c>
       <c r="AF26" t="s">
         <v>234</v>
@@ -15124,7 +15786,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>235</v>
@@ -15144,7 +15806,7 @@
         <v>431</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -15161,7 +15823,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -15178,7 +15840,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -15192,7 +15854,7 @@
         <v>214</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
@@ -15206,7 +15868,7 @@
         <v>273</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -15217,7 +15879,7 @@
         <v>283</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -15228,7 +15890,7 @@
         <v>504</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -15239,7 +15901,7 @@
         <v>258</v>
       </c>
       <c r="AA35" t="s">
-        <v>559</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -15250,7 +15912,7 @@
         <v>328</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37">
@@ -15261,7 +15923,7 @@
         <v>305</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -15272,7 +15934,7 @@
         <v>259</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -15283,7 +15945,7 @@
         <v>306</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -15291,7 +15953,7 @@
         <v>265</v>
       </c>
       <c r="AA40" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -15299,7 +15961,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -15307,7 +15969,7 @@
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>570</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43">
@@ -15315,7 +15977,7 @@
         <v>509</v>
       </c>
       <c r="AA43" t="s">
-        <v>390</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44">
@@ -15323,7 +15985,7 @@
         <v>287</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
@@ -15331,7 +15993,7 @@
         <v>298</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -15339,7 +16001,7 @@
         <v>299</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -15347,7 +16009,7 @@
         <v>341</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -15355,7 +16017,7 @@
         <v>340</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -15363,7 +16025,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -15371,7 +16033,7 @@
         <v>318</v>
       </c>
       <c r="AA50" t="s">
-        <v>436</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -15379,7 +16041,7 @@
         <v>337</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52">
@@ -15387,7 +16049,7 @@
         <v>365</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -15395,7 +16057,7 @@
         <v>300</v>
       </c>
       <c r="AA53" t="s">
-        <v>530</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -15403,7 +16065,7 @@
         <v>353</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55">
@@ -15411,7 +16073,7 @@
         <v>329</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -15419,7 +16081,7 @@
         <v>266</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -15427,7 +16089,7 @@
         <v>290</v>
       </c>
       <c r="AA57" t="s">
-        <v>492</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -15435,7 +16097,7 @@
         <v>291</v>
       </c>
       <c r="AA58" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
@@ -15443,7 +16105,7 @@
         <v>510</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60">
@@ -15451,7 +16113,7 @@
         <v>292</v>
       </c>
       <c r="AA60" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -15459,7 +16121,7 @@
         <v>301</v>
       </c>
       <c r="AA61" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
@@ -15467,7 +16129,7 @@
         <v>310</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63">
@@ -15475,7 +16137,7 @@
         <v>335</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -15483,7 +16145,7 @@
         <v>307</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -15491,7 +16153,7 @@
         <v>308</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -15499,7 +16161,7 @@
         <v>366</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -15507,7 +16169,7 @@
         <v>367</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -15515,7 +16177,7 @@
         <v>343</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -15523,7 +16185,7 @@
         <v>311</v>
       </c>
       <c r="AA69" t="s">
-        <v>437</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -15531,7 +16193,7 @@
         <v>267</v>
       </c>
       <c r="AA70" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71">
@@ -15539,7 +16201,7 @@
         <v>511</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72">
@@ -15547,7 +16209,7 @@
         <v>312</v>
       </c>
       <c r="AA72" t="s">
-        <v>386</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -15555,7 +16217,7 @@
         <v>407</v>
       </c>
       <c r="AA73" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74">
@@ -15563,7 +16225,7 @@
         <v>302</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
@@ -15571,7 +16233,7 @@
         <v>408</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -15579,7 +16241,7 @@
         <v>260</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -15587,7 +16249,7 @@
         <v>505</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -15595,7 +16257,7 @@
         <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -15603,7 +16265,7 @@
         <v>278</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -15611,7 +16273,7 @@
         <v>284</v>
       </c>
       <c r="AA80" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -15619,7 +16281,7 @@
         <v>289</v>
       </c>
       <c r="AA81" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82">
@@ -15627,7 +16289,7 @@
         <v>426</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83">
@@ -15635,7 +16297,7 @@
         <v>330</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -15643,7 +16305,7 @@
         <v>268</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -15651,7 +16313,7 @@
         <v>279</v>
       </c>
       <c r="AA85" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -15659,7 +16321,7 @@
         <v>285</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87">
@@ -15667,7 +16329,7 @@
         <v>274</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -15675,7 +16337,7 @@
         <v>512</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -15683,7 +16345,7 @@
         <v>269</v>
       </c>
       <c r="AA89" t="s">
-        <v>494</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -15691,7 +16353,7 @@
         <v>286</v>
       </c>
       <c r="AA90" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91">
@@ -15699,7 +16361,7 @@
         <v>270</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92">
@@ -15707,7 +16369,7 @@
         <v>271</v>
       </c>
       <c r="AA92" t="s">
-        <v>451</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -15715,7 +16377,7 @@
         <v>303</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94">
@@ -15723,7 +16385,7 @@
         <v>309</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -15731,7 +16393,7 @@
         <v>293</v>
       </c>
       <c r="AA95" t="s">
-        <v>564</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -15739,7 +16401,7 @@
         <v>338</v>
       </c>
       <c r="AA96" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97">
@@ -15747,7 +16409,7 @@
         <v>275</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98">
@@ -15755,236 +16417,241 @@
         <v>276</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>583</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>495</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>532</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>380</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>584</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>584</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>585</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>586</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>441</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>561</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>587</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>587</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -38,22 +38,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11422" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12700" uniqueCount="661">
   <si>
     <t>description</t>
   </si>
@@ -1902,6 +1902,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +2059,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="349" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3907,8 +4057,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="565">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6832,6 +7196,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -13074,7 +13710,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="377">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14073,52 +14709,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="492" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="492" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="495" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="495" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="498" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="498" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="501" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="501" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="507" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="507" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="498" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="498" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="510" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="510" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="510" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="510" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="317" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="318" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="321" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14593,7 +15331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14684,21 +15422,24 @@
         <v>601</v>
       </c>
       <c r="AA1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>411</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14782,21 +15523,24 @@
         <v>605</v>
       </c>
       <c r="AA2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>429</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -14871,21 +15615,24 @@
         <v>606</v>
       </c>
       <c r="AA3" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>361</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14957,21 +15704,24 @@
         <v>607</v>
       </c>
       <c r="AA4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB4" t="s">
         <v>576</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>421</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15031,21 +15781,24 @@
         <v>356</v>
       </c>
       <c r="AA5" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB5" t="s">
         <v>569</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>588</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>422</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15102,21 +15855,24 @@
         <v>358</v>
       </c>
       <c r="AA6" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>442</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>423</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -15164,21 +15920,24 @@
         <v>357</v>
       </c>
       <c r="AA7" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>443</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>424</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -15226,21 +15985,24 @@
         <v>359</v>
       </c>
       <c r="AA8" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>425</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -15285,15 +16047,18 @@
         <v>360</v>
       </c>
       <c r="AA9" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -15329,15 +16094,18 @@
         <v>403</v>
       </c>
       <c r="AA10" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>589</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -15367,15 +16135,18 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>617</v>
       </c>
       <c r="AA11" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB11" t="s">
         <v>256</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>257</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -15405,15 +16176,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -15443,15 +16217,18 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>581</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB13" t="s">
         <v>324</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -15478,15 +16255,18 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>581</v>
       </c>
       <c r="AA14" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -15513,15 +16293,18 @@
         <v>488</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB15" t="s">
         <v>608</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>498</v>
       </c>
     </row>
@@ -15548,15 +16331,18 @@
         <v>489</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB16" t="s">
         <v>582</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>499</v>
       </c>
     </row>
@@ -15577,15 +16363,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>464</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>500</v>
       </c>
     </row>
@@ -15605,10 +16394,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>472</v>
       </c>
     </row>
@@ -15617,7 +16412,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>611</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -15626,9 +16421,12 @@
         <v>460</v>
       </c>
       <c r="AA19" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB19" t="s">
         <v>490</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -15637,7 +16435,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>612</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -15646,9 +16444,12 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -15657,7 +16458,7 @@
         <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>613</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
@@ -15666,9 +16467,12 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -15677,7 +16481,7 @@
         <v>409</v>
       </c>
       <c r="F22" t="s">
-        <v>508</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -15686,9 +16490,12 @@
         <v>573</v>
       </c>
       <c r="AA22" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -15697,7 +16504,7 @@
         <v>410</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -15706,9 +16513,12 @@
         <v>467</v>
       </c>
       <c r="AA23" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>536</v>
       </c>
     </row>
@@ -15717,7 +16527,7 @@
         <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -15726,9 +16536,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB24" t="s">
         <v>491</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15737,7 +16550,7 @@
         <v>394</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>614</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -15746,9 +16559,12 @@
         <v>389</v>
       </c>
       <c r="AA25" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>538</v>
       </c>
     </row>
@@ -15757,234 +16573,294 @@
         <v>601</v>
       </c>
       <c r="F26" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>515</v>
+        <v>616</v>
       </c>
       <c r="AA26" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB26" t="s">
         <v>558</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>592</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>515</v>
       </c>
       <c r="AA27" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>465</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="AA29" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>413</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB31" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>411</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
       </c>
       <c r="AA32" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>465</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
       </c>
       <c r="AA33" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
       </c>
       <c r="AA34" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>413</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
       </c>
       <c r="AA35" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
       </c>
       <c r="AA36" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB36" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
       </c>
       <c r="AA37" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
       </c>
       <c r="AA38" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>509</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>615</v>
+      </c>
       <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>390</v>
       </c>
     </row>
@@ -15992,7 +16868,7 @@
       <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16000,7 +16876,7 @@
       <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16008,7 +16884,7 @@
       <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16016,7 +16892,7 @@
       <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16024,7 +16900,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16032,7 +16908,7 @@
       <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -16040,7 +16916,7 @@
       <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>609</v>
       </c>
     </row>
@@ -16048,7 +16924,7 @@
       <c r="H52" t="s">
         <v>365</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -16056,7 +16932,7 @@
       <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -16064,7 +16940,7 @@
       <c r="H54" t="s">
         <v>353</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>530</v>
       </c>
     </row>
@@ -16072,7 +16948,7 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -16080,7 +16956,7 @@
       <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16088,7 +16964,7 @@
       <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16096,7 +16972,7 @@
       <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>492</v>
       </c>
     </row>
@@ -16104,7 +16980,7 @@
       <c r="H59" t="s">
         <v>510</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>461</v>
       </c>
     </row>
@@ -16112,7 +16988,7 @@
       <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -16120,7 +16996,7 @@
       <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>344</v>
       </c>
     </row>
@@ -16128,7 +17004,7 @@
       <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>462</v>
       </c>
     </row>
@@ -16136,7 +17012,7 @@
       <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -16144,7 +17020,7 @@
       <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -16152,7 +17028,7 @@
       <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -16160,7 +17036,7 @@
       <c r="H66" t="s">
         <v>366</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -16168,7 +17044,7 @@
       <c r="H67" t="s">
         <v>367</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -16176,7 +17052,7 @@
       <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -16184,7 +17060,7 @@
       <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16192,7 +17068,7 @@
       <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>437</v>
       </c>
     </row>
@@ -16200,7 +17076,7 @@
       <c r="H71" t="s">
         <v>511</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>470</v>
       </c>
     </row>
@@ -16208,7 +17084,7 @@
       <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -16216,7 +17092,7 @@
       <c r="H73" t="s">
         <v>407</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>386</v>
       </c>
     </row>
@@ -16224,7 +17100,7 @@
       <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>438</v>
       </c>
     </row>
@@ -16232,7 +17108,7 @@
       <c r="H75" t="s">
         <v>408</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -16240,7 +17116,7 @@
       <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -16248,7 +17124,7 @@
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -16256,7 +17132,7 @@
       <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -16264,395 +17140,425 @@
       <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
+      <c r="AB79" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
+      <c r="AB80" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="AA81" t="s">
-        <v>450</v>
+      <c r="AB81" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>426</v>
       </c>
-      <c r="AA82" t="s">
-        <v>463</v>
+      <c r="AB82" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
+      <c r="AB83" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
+      <c r="AB84" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
+      <c r="AB85" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="AA86" t="s">
-        <v>493</v>
+      <c r="AB86" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
+      <c r="AB87" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>512</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
+      <c r="AB88" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
+      <c r="AB89" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="AA90" t="s">
-        <v>494</v>
+      <c r="AB90" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="AA91" t="s">
-        <v>579</v>
+      <c r="AB91" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
+      <c r="AB92" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="AA93" t="s">
-        <v>451</v>
+      <c r="AB93" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
+      <c r="AB94" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
+      <c r="AB95" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="AA96" t="s">
-        <v>564</v>
+      <c r="AB96" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="AA97" t="s">
-        <v>565</v>
+      <c r="AB97" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>571</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12700" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13302" uniqueCount="663">
   <si>
     <t>description</t>
   </si>
@@ -2052,6 +2052,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2065,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="349" x14ac:knownFonts="1">
+  <fonts count="366" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4271,8 +4277,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="565">
+  <fills count="589">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7196,6 +7309,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -13710,7 +13959,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="394">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14808,55 +15057,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="338" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15331,7 +15631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15422,24 +15722,21 @@
         <v>601</v>
       </c>
       <c r="AA1" t="s">
-        <v>592</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>411</v>
       </c>
       <c r="AF1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -15472,7 +15769,7 @@
         <v>447</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>662</v>
       </c>
       <c r="K2" t="s">
         <v>599</v>
@@ -15523,24 +15820,21 @@
         <v>605</v>
       </c>
       <c r="AA2" t="s">
-        <v>618</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="AF2" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -15570,7 +15864,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>347</v>
@@ -15615,24 +15909,21 @@
         <v>606</v>
       </c>
       <c r="AA3" t="s">
-        <v>619</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="AE3" t="s">
-        <v>361</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -15659,7 +15950,7 @@
         <v>448</v>
       </c>
       <c r="J4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K4" t="s">
         <v>348</v>
@@ -15704,24 +15995,21 @@
         <v>607</v>
       </c>
       <c r="AA4" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="AB4" t="s">
-        <v>576</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AF4" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15748,7 +16036,7 @@
         <v>457</v>
       </c>
       <c r="J5" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="K5" t="s">
         <v>349</v>
@@ -15781,24 +16069,21 @@
         <v>356</v>
       </c>
       <c r="AA5" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="AB5" t="s">
-        <v>569</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>588</v>
       </c>
       <c r="AD5" t="s">
-        <v>588</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AF5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15825,7 +16110,7 @@
         <v>445</v>
       </c>
       <c r="J6" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="K6" t="s">
         <v>600</v>
@@ -15855,24 +16140,21 @@
         <v>358</v>
       </c>
       <c r="AA6" t="s">
-        <v>622</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="AC6" t="s">
-        <v>442</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AF6" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -15892,6 +16174,9 @@
       <c r="I7" t="s">
         <v>444</v>
       </c>
+      <c r="J7" t="s">
+        <v>574</v>
+      </c>
       <c r="K7" t="s">
         <v>346</v>
       </c>
@@ -15920,24 +16205,21 @@
         <v>357</v>
       </c>
       <c r="AA7" t="s">
-        <v>623</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="AC7" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>424</v>
       </c>
       <c r="AF7" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -15985,24 +16267,21 @@
         <v>359</v>
       </c>
       <c r="AA8" t="s">
-        <v>624</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="AF8" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -16047,18 +16326,15 @@
         <v>360</v>
       </c>
       <c r="AA9" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16094,18 +16370,15 @@
         <v>403</v>
       </c>
       <c r="AA10" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB10" t="s">
         <v>255</v>
       </c>
+      <c r="AC10" t="s">
+        <v>589</v>
+      </c>
       <c r="AD10" t="s">
-        <v>589</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -16114,7 +16387,7 @@
         <v>345</v>
       </c>
       <c r="F11" t="s">
-        <v>568</v>
+        <v>661</v>
       </c>
       <c r="H11" t="s">
         <v>350</v>
@@ -16138,15 +16411,12 @@
         <v>617</v>
       </c>
       <c r="AA11" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB11" t="s">
         <v>256</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>257</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -16155,7 +16425,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>568</v>
       </c>
       <c r="H12" t="s">
         <v>272</v>
@@ -16179,15 +16449,12 @@
         <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -16196,7 +16463,7 @@
         <v>331</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H13" t="s">
         <v>261</v>
@@ -16220,15 +16487,12 @@
         <v>247</v>
       </c>
       <c r="AA13" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB13" t="s">
         <v>324</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -16237,7 +16501,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>339</v>
       </c>
       <c r="H14" t="s">
         <v>314</v>
@@ -16258,15 +16522,12 @@
         <v>581</v>
       </c>
       <c r="AA14" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -16275,7 +16536,7 @@
         <v>506</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>262</v>
@@ -16296,15 +16557,12 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB15" t="s">
         <v>608</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>498</v>
       </c>
     </row>
@@ -16313,7 +16571,7 @@
         <v>474</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>263</v>
@@ -16334,15 +16592,12 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB16" t="s">
         <v>582</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>499</v>
       </c>
     </row>
@@ -16351,7 +16606,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H17" t="s">
         <v>315</v>
@@ -16366,15 +16621,12 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>464</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>500</v>
       </c>
     </row>
@@ -16383,7 +16635,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -16398,12 +16650,9 @@
         <v>250</v>
       </c>
       <c r="AA18" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>472</v>
       </c>
     </row>
@@ -16412,7 +16661,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
+        <v>412</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -16421,12 +16670,9 @@
         <v>460</v>
       </c>
       <c r="AA19" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB19" t="s">
         <v>490</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>501</v>
       </c>
     </row>
@@ -16435,7 +16681,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -16444,12 +16690,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -16458,7 +16701,7 @@
         <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
@@ -16467,12 +16710,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -16481,7 +16721,7 @@
         <v>409</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>613</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -16490,12 +16730,9 @@
         <v>573</v>
       </c>
       <c r="AA22" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -16504,7 +16741,7 @@
         <v>410</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -16513,12 +16750,9 @@
         <v>467</v>
       </c>
       <c r="AA23" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>536</v>
       </c>
     </row>
@@ -16527,7 +16761,7 @@
         <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -16536,12 +16770,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB24" t="s">
         <v>491</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>537</v>
       </c>
     </row>
@@ -16550,7 +16781,7 @@
         <v>394</v>
       </c>
       <c r="F25" t="s">
-        <v>614</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -16559,12 +16790,9 @@
         <v>389</v>
       </c>
       <c r="AA25" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>538</v>
       </c>
     </row>
@@ -16573,7 +16801,7 @@
         <v>601</v>
       </c>
       <c r="F26" t="s">
-        <v>508</v>
+        <v>614</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -16582,21 +16810,18 @@
         <v>616</v>
       </c>
       <c r="AA26" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB26" t="s">
         <v>558</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>592</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>508</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -16605,21 +16830,18 @@
         <v>515</v>
       </c>
       <c r="AA27" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -16628,18 +16850,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -16648,18 +16867,15 @@
         <v>431</v>
       </c>
       <c r="AA29" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -16668,18 +16884,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>411</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -16688,187 +16901,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB31" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>411</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
       </c>
       <c r="AA32" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
       <c r="F33" t="s">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
       </c>
       <c r="AA33" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
       </c>
       <c r="AA34" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
       </c>
       <c r="AA35" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
       </c>
       <c r="AA36" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB36" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
       </c>
       <c r="AA37" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
       </c>
       <c r="AA38" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>509</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>615</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>615</v>
+      </c>
       <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16876,7 +17065,7 @@
       <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16884,7 +17073,7 @@
       <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16892,7 +17081,7 @@
       <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16900,7 +17089,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16908,7 +17097,7 @@
       <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -16916,7 +17105,7 @@
       <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>609</v>
       </c>
     </row>
@@ -16924,7 +17113,7 @@
       <c r="H52" t="s">
         <v>365</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -16932,7 +17121,7 @@
       <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -16940,7 +17129,7 @@
       <c r="H54" t="s">
         <v>353</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>530</v>
       </c>
     </row>
@@ -16948,7 +17137,7 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -16956,7 +17145,7 @@
       <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16964,7 +17153,7 @@
       <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16972,7 +17161,7 @@
       <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>492</v>
       </c>
     </row>
@@ -16980,7 +17169,7 @@
       <c r="H59" t="s">
         <v>510</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>461</v>
       </c>
     </row>
@@ -16988,7 +17177,7 @@
       <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -16996,7 +17185,7 @@
       <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>344</v>
       </c>
     </row>
@@ -17004,7 +17193,7 @@
       <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>462</v>
       </c>
     </row>
@@ -17012,7 +17201,7 @@
       <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -17020,7 +17209,7 @@
       <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -17028,7 +17217,7 @@
       <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17036,7 +17225,7 @@
       <c r="H66" t="s">
         <v>366</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -17044,7 +17233,7 @@
       <c r="H67" t="s">
         <v>367</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -17052,7 +17241,7 @@
       <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17060,7 +17249,7 @@
       <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17068,7 +17257,7 @@
       <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>437</v>
       </c>
     </row>
@@ -17076,7 +17265,7 @@
       <c r="H71" t="s">
         <v>511</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>470</v>
       </c>
     </row>
@@ -17084,7 +17273,7 @@
       <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -17092,7 +17281,7 @@
       <c r="H73" t="s">
         <v>407</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>386</v>
       </c>
     </row>
@@ -17100,7 +17289,7 @@
       <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>438</v>
       </c>
     </row>
@@ -17108,7 +17297,7 @@
       <c r="H75" t="s">
         <v>408</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -17116,7 +17305,7 @@
       <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17124,7 +17313,7 @@
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17132,7 +17321,7 @@
       <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -17140,7 +17329,7 @@
       <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>653</v>
       </c>
     </row>
@@ -17148,7 +17337,7 @@
       <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17156,7 +17345,7 @@
       <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -17164,7 +17353,7 @@
       <c r="H82" t="s">
         <v>426</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>450</v>
       </c>
     </row>
@@ -17172,7 +17361,7 @@
       <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>463</v>
       </c>
     </row>
@@ -17180,7 +17369,7 @@
       <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17188,7 +17377,7 @@
       <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -17196,7 +17385,7 @@
       <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -17204,7 +17393,7 @@
       <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>493</v>
       </c>
     </row>
@@ -17212,7 +17401,7 @@
       <c r="H88" t="s">
         <v>512</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -17220,7 +17409,7 @@
       <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -17228,7 +17417,7 @@
       <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17236,7 +17425,7 @@
       <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>494</v>
       </c>
     </row>
@@ -17244,7 +17433,7 @@
       <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>579</v>
       </c>
     </row>
@@ -17252,7 +17441,7 @@
       <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -17260,7 +17449,7 @@
       <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>451</v>
       </c>
     </row>
@@ -17268,7 +17457,7 @@
       <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -17276,7 +17465,7 @@
       <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17284,7 +17473,7 @@
       <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>564</v>
       </c>
     </row>
@@ -17292,272 +17481,272 @@
       <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>660</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -22,12 +22,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="612">
   <si>
     <t>target</t>
   </si>
@@ -1879,6 +1879,18 @@
   </si>
   <si>
     <t>(empty)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1903,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2082,6 +2094,220 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -2812,7 +3038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2938,55 +3164,157 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3349,7 +3677,7 @@
   <sheetPr/>
   <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3506,7 +3834,7 @@
         <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>609</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -3600,6 +3928,9 @@
       <c r="P3" t="s">
         <v>76</v>
       </c>
+      <c r="Q3" t="s">
+        <v>610</v>
+      </c>
       <c r="R3" t="s">
         <v>77</v>
       </c>
@@ -3686,6 +4017,9 @@
       <c r="P4" t="s">
         <v>103</v>
       </c>
+      <c r="Q4" t="s">
+        <v>611</v>
+      </c>
       <c r="R4" t="s">
         <v>104</v>
       </c>
@@ -3897,7 +4231,7 @@
         <v>167</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>608</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -3959,7 +4293,7 @@
         <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>186</v>
@@ -4018,7 +4352,7 @@
         <v>202</v>
       </c>
       <c r="L9" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>204</v>
@@ -4068,7 +4402,7 @@
         <v>216</v>
       </c>
       <c r="L10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="N10" t="s">
         <v>218</v>
@@ -4112,7 +4446,7 @@
         <v>229</v>
       </c>
       <c r="L11" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N11" t="s">
         <v>231</v>
@@ -4150,7 +4484,7 @@
         <v>240</v>
       </c>
       <c r="L12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="N12" t="s">
         <v>242</v>
@@ -4188,7 +4522,7 @@
         <v>251</v>
       </c>
       <c r="L13" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N13" t="s">
         <v>253</v>
@@ -4226,7 +4560,7 @@
         <v>261</v>
       </c>
       <c r="L14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="N14" t="s">
         <v>263</v>
@@ -4261,7 +4595,7 @@
         <v>271</v>
       </c>
       <c r="L15" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N15" t="s">
         <v>273</v>
@@ -4296,7 +4630,7 @@
         <v>281</v>
       </c>
       <c r="L16" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N16" t="s">
         <v>283</v>
@@ -4328,7 +4662,7 @@
         <v>290</v>
       </c>
       <c r="L17" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="N17" t="s">
         <v>292</v>
@@ -4357,7 +4691,7 @@
         <v>298</v>
       </c>
       <c r="L18" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N18" t="s">
         <v>300</v>
@@ -4383,7 +4717,7 @@
         <v>305</v>
       </c>
       <c r="L19" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AA19" t="s">
         <v>307</v>
@@ -4403,7 +4737,7 @@
         <v>310</v>
       </c>
       <c r="L20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AA20" t="s">
         <v>312</v>
@@ -4423,7 +4757,7 @@
         <v>315</v>
       </c>
       <c r="L21" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AA21" t="s">
         <v>317</v>
@@ -4443,7 +4777,7 @@
         <v>320</v>
       </c>
       <c r="L22" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AA22" t="s">
         <v>322</v>
@@ -4463,7 +4797,7 @@
         <v>325</v>
       </c>
       <c r="L23" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AA23" t="s">
         <v>327</v>
@@ -4483,7 +4817,7 @@
         <v>330</v>
       </c>
       <c r="L24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AA24" t="s">
         <v>332</v>
@@ -4503,7 +4837,7 @@
         <v>335</v>
       </c>
       <c r="L25" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AA25" t="s">
         <v>337</v>
@@ -4523,7 +4857,7 @@
         <v>340</v>
       </c>
       <c r="L26" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA26" t="s">
         <v>342</v>
@@ -4543,7 +4877,7 @@
         <v>345</v>
       </c>
       <c r="L27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AA27" t="s">
         <v>347</v>
@@ -4563,7 +4897,7 @@
         <v>350</v>
       </c>
       <c r="L28" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AA28" t="s">
         <v>352</v>
@@ -4580,7 +4914,7 @@
         <v>354</v>
       </c>
       <c r="L29" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AA29" t="s">
         <v>356</v>
@@ -4597,7 +4931,7 @@
         <v>358</v>
       </c>
       <c r="L30" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AA30" t="s">
         <v>360</v>
@@ -4614,7 +4948,7 @@
         <v>362</v>
       </c>
       <c r="L31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AA31" t="s">
         <v>364</v>
@@ -4629,6 +4963,9 @@
       </c>
       <c r="H32" t="s">
         <v>366</v>
+      </c>
+      <c r="L32" t="s">
+        <v>363</v>
       </c>
       <c r="AA32" t="s">
         <v>367</v>
@@ -5485,18 +5822,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="34.5" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.1666666666667" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="5" width="10.8333333333333" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="6" width="45.1666666666667" collapsed="false"/>
-    <col min="5" max="9" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="8" width="1.66666666666667" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="8" width="49.8333333333333" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="10.8333333333333" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.1666666666667" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="10.8333333333333" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="45.1666666666667" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="1.66666666666667" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="49.8333333333333" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="10.8333333333333" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15">

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -27,12 +27,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="618">
   <si>
     <t>target</t>
   </si>
@@ -1891,6 +1891,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1921,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="77">
+  <fonts count="94">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2094,6 +2112,113 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3038,7 +3163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3266,55 +3391,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3834,7 +4010,7 @@
         <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -3929,7 +4105,7 @@
         <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="R3" t="s">
         <v>77</v>
@@ -4018,7 +4194,7 @@
         <v>103</v>
       </c>
       <c r="Q4" t="s">
-        <v>611</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
         <v>104</v>
@@ -4100,6 +4276,9 @@
       <c r="O5" t="s">
         <v>127</v>
       </c>
+      <c r="Q5" t="s">
+        <v>614</v>
+      </c>
       <c r="R5" t="s">
         <v>128</v>
       </c>
@@ -4534,7 +4713,7 @@
         <v>255</v>
       </c>
       <c r="S13" t="s">
-        <v>256</v>
+        <v>615</v>
       </c>
       <c r="AA13" t="s">
         <v>257</v>
@@ -4569,7 +4748,7 @@
         <v>264</v>
       </c>
       <c r="S14" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AA14" t="s">
         <v>266</v>
@@ -4604,7 +4783,7 @@
         <v>274</v>
       </c>
       <c r="S15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AA15" t="s">
         <v>276</v>
@@ -4639,7 +4818,7 @@
         <v>284</v>
       </c>
       <c r="S16" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AA16" t="s">
         <v>286</v>
@@ -4668,7 +4847,7 @@
         <v>292</v>
       </c>
       <c r="S17" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AA17" t="s">
         <v>294</v>
@@ -4697,7 +4876,7 @@
         <v>300</v>
       </c>
       <c r="S18" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA18" t="s">
         <v>302</v>
@@ -4719,6 +4898,9 @@
       <c r="L19" t="s">
         <v>299</v>
       </c>
+      <c r="S19" t="s">
+        <v>616</v>
+      </c>
       <c r="AA19" t="s">
         <v>307</v>
       </c>
@@ -4739,6 +4921,9 @@
       <c r="L20" t="s">
         <v>306</v>
       </c>
+      <c r="S20" t="s">
+        <v>301</v>
+      </c>
       <c r="AA20" t="s">
         <v>312</v>
       </c>
@@ -4758,6 +4943,9 @@
       </c>
       <c r="L21" t="s">
         <v>311</v>
+      </c>
+      <c r="S21" t="s">
+        <v>617</v>
       </c>
       <c r="AA21" t="s">
         <v>317</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -14,12 +14,12 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -39,23 +39,25 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="655">
   <si>
     <t>target</t>
   </si>
@@ -1909,6 +1911,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +2034,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="94">
+  <fonts count="111">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2541,8 +2654,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="83">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2745,6 +2965,142 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3163,7 +3519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3491,6 +3847,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3851,7 +4258,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3951,12 +4358,18 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4049,12 +4462,18 @@
         <v>59</v>
       </c>
       <c r="AD2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4141,12 +4560,18 @@
         <v>87</v>
       </c>
       <c r="AD3" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF3" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4230,12 +4655,18 @@
         <v>114</v>
       </c>
       <c r="AD4" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF4" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>115</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4306,13 +4737,16 @@
       <c r="AC5" t="s">
         <v>136</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AF5" t="s">
         <v>137</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>138</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4377,13 +4811,16 @@
       <c r="AC6" t="s">
         <v>158</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF6" t="s">
         <v>159</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>160</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4442,13 +4879,16 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF7" t="s">
         <v>177</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>178</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4466,7 +4906,7 @@
         <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>640</v>
       </c>
       <c r="K8" t="s">
         <v>184</v>
@@ -4504,13 +4944,16 @@
       <c r="AC8" t="s">
         <v>195</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>653</v>
+      </c>
+      <c r="AF8" t="s">
         <v>196</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>197</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4528,7 +4971,7 @@
         <v>201</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L9" t="s">
         <v>185</v>
@@ -4560,10 +5003,13 @@
       <c r="AC9" t="s">
         <v>212</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF9" t="s">
         <v>213</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4578,7 +5024,7 @@
         <v>215</v>
       </c>
       <c r="I10" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L10" t="s">
         <v>203</v>
@@ -4604,10 +5050,10 @@
       <c r="AC10" t="s">
         <v>224</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>225</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4622,7 +5068,7 @@
         <v>228</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L11" t="s">
         <v>217</v>
@@ -4642,10 +5088,10 @@
       <c r="AA11" t="s">
         <v>235</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>236</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4660,7 +5106,7 @@
         <v>239</v>
       </c>
       <c r="I12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L12" t="s">
         <v>230</v>
@@ -4680,10 +5126,10 @@
       <c r="AA12" t="s">
         <v>246</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>247</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4698,7 +5144,7 @@
         <v>250</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -4718,10 +5164,10 @@
       <c r="AA13" t="s">
         <v>257</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>258</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4736,7 +5182,7 @@
         <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L14" t="s">
         <v>252</v>
@@ -4753,10 +5199,10 @@
       <c r="AA14" t="s">
         <v>266</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>267</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4771,7 +5217,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L15" t="s">
         <v>262</v>
@@ -4788,10 +5234,10 @@
       <c r="AA15" t="s">
         <v>276</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>277</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4806,7 +5252,7 @@
         <v>280</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L16" t="s">
         <v>272</v>
@@ -4823,10 +5269,10 @@
       <c r="AA16" t="s">
         <v>286</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>287</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4840,6 +5286,9 @@
       <c r="H17" t="s">
         <v>290</v>
       </c>
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
       <c r="L17" t="s">
         <v>282</v>
       </c>
@@ -4852,10 +5301,10 @@
       <c r="AA17" t="s">
         <v>294</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>295</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4869,6 +5318,9 @@
       <c r="H18" t="s">
         <v>298</v>
       </c>
+      <c r="I18" t="s">
+        <v>641</v>
+      </c>
       <c r="L18" t="s">
         <v>291</v>
       </c>
@@ -4881,7 +5333,7 @@
       <c r="AA18" t="s">
         <v>302</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4890,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
+        <v>620</v>
       </c>
       <c r="H19" t="s">
         <v>305</v>
@@ -4904,7 +5356,7 @@
       <c r="AA19" t="s">
         <v>307</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4913,7 +5365,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>621</v>
       </c>
       <c r="H20" t="s">
         <v>310</v>
@@ -4927,7 +5379,7 @@
       <c r="AA20" t="s">
         <v>312</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4936,7 +5388,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H21" t="s">
         <v>315</v>
@@ -4950,7 +5402,7 @@
       <c r="AA21" t="s">
         <v>317</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4959,7 +5411,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H22" t="s">
         <v>320</v>
@@ -4970,7 +5422,7 @@
       <c r="AA22" t="s">
         <v>322</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4979,7 +5431,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H23" t="s">
         <v>325</v>
@@ -4990,7 +5442,7 @@
       <c r="AA23" t="s">
         <v>327</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4999,7 +5451,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>330</v>
@@ -5010,7 +5462,7 @@
       <c r="AA24" t="s">
         <v>332</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5019,7 +5471,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H25" t="s">
         <v>335</v>
@@ -5030,7 +5482,7 @@
       <c r="AA25" t="s">
         <v>337</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5039,18 +5491,18 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H26" t="s">
-        <v>340</v>
+        <v>622</v>
       </c>
       <c r="L26" t="s">
         <v>336</v>
       </c>
       <c r="AA26" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>642</v>
+      </c>
+      <c r="AH26" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5059,18 +5511,18 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H27" t="s">
-        <v>345</v>
+        <v>623</v>
       </c>
       <c r="L27" t="s">
         <v>341</v>
       </c>
       <c r="AA27" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH27" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5079,16 +5531,16 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H28" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L28" t="s">
         <v>346</v>
       </c>
       <c r="AA28" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29">
@@ -5096,898 +5548,959 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H29" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L29" t="s">
         <v>351</v>
       </c>
       <c r="AA29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>618</v>
       </c>
       <c r="F30" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H30" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L30" t="s">
         <v>355</v>
       </c>
       <c r="AA30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>619</v>
       </c>
       <c r="F31" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H31" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L31" t="s">
         <v>359</v>
       </c>
       <c r="AA31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H32" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L32" t="s">
         <v>363</v>
       </c>
       <c r="AA32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H33" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA33" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>368</v>
-      </c>
-      <c r="H33" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>365</v>
+      </c>
+      <c r="H34" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA34" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>371</v>
-      </c>
-      <c r="H34" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H35" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AA35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H36" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AA36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H37" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AA37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H38" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AA38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H39" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AA39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H40" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AA40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H41" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H42" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AA42" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H43" t="s">
-        <v>399</v>
+        <v>624</v>
       </c>
       <c r="AA43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H44" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AA44" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="H45" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>401</v>
+      </c>
+      <c r="H46" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>404</v>
       </c>
-      <c r="H45" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA47" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AA48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AA49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AA50" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AA51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AA52" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AA53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>423</v>
+        <v>625</v>
       </c>
       <c r="AA54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>425</v>
+        <v>626</v>
       </c>
       <c r="AA55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>427</v>
+        <v>627</v>
       </c>
       <c r="AA56" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>429</v>
+        <v>628</v>
       </c>
       <c r="AA57" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AA58" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AA59" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="AA60" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AA61" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="AA62" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AA63" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AA64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AA65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AA66" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>449</v>
+        <v>629</v>
       </c>
       <c r="AA67" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>451</v>
+        <v>630</v>
       </c>
       <c r="AA68" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>453</v>
+        <v>631</v>
       </c>
       <c r="AA69" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AA70" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>457</v>
+        <v>632</v>
       </c>
       <c r="AA71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="AA72" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="AA73" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AA74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AA75" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AA76" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AA77" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="AA78" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA79" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AA80" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="AA81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AA82" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AA83" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>483</v>
+        <v>634</v>
       </c>
       <c r="AA84" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>485</v>
+        <v>635</v>
       </c>
       <c r="AA85" t="s">
-        <v>486</v>
+        <v>643</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AA86" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="AA87" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="AA88" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="AA89" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>495</v>
+        <v>636</v>
       </c>
       <c r="AA90" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>497</v>
+        <v>637</v>
       </c>
       <c r="AA91" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="AA92" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="AA93" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="AA94" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="AA95" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="AA96" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="AA97" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>511</v>
       </c>
-      <c r="AA98" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>565</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web-updateAttributeCommand.xlsx
@@ -15,49 +15,52 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="780">
   <si>
     <t>target</t>
   </si>
@@ -2022,6 +2025,381 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2412,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="111">
+  <fonts count="128">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2761,8 +3139,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="83">
+  <fills count="107">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2965,6 +3450,142 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3519,7 +4140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3798,106 +4419,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="83" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="88" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4258,7 +4930,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4289,87 +4961,99 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>656</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>657</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>618</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>619</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4393,87 +5077,99 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>612</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>681</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" t="s">
-        <v>644</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>775</v>
+      </c>
+      <c r="AI2" t="s">
         <v>647</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4494,84 +5190,96 @@
         <v>66</v>
       </c>
       <c r="G3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>69</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
       <c r="M3" t="s">
+        <v>667</v>
+      </c>
+      <c r="N3" t="s">
+        <v>668</v>
+      </c>
+      <c r="O3" t="s">
         <v>73</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>74</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>75</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>613</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>682</v>
+      </c>
+      <c r="U3" t="s">
         <v>77</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>78</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>79</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>80</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>81</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE3" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" t="s">
-        <v>645</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>776</v>
+      </c>
+      <c r="AI3" t="s">
         <v>648</v>
       </c>
-      <c r="AF3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>777</v>
+      </c>
+      <c r="AK3" t="s">
         <v>89</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4589,84 +5297,96 @@
         <v>93</v>
       </c>
       <c r="G4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>98</v>
       </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
       <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
         <v>100</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>101</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>102</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>683</v>
+      </c>
+      <c r="U4" t="s">
         <v>104</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>105</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>106</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>107</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>108</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE4" t="s">
         <v>112</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>113</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" t="s">
-        <v>646</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI4" t="s">
         <v>649</v>
       </c>
-      <c r="AF4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK4" t="s">
         <v>115</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4684,69 +5404,84 @@
         <v>119</v>
       </c>
       <c r="G5" t="s">
+        <v>662</v>
+      </c>
+      <c r="H5" t="s">
         <v>120</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>121</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>122</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>123</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>124</v>
       </c>
-      <c r="L5" t="s">
-        <v>125</v>
+      <c r="M5" t="s">
+        <v>99</v>
       </c>
       <c r="N5" t="s">
+        <v>669</v>
+      </c>
+      <c r="P5" t="s">
         <v>126</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>127</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>614</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>276</v>
+      </c>
+      <c r="U5" t="s">
         <v>128</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>129</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>130</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>131</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>132</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>133</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>136</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI5" t="s">
         <v>650</v>
       </c>
-      <c r="AF5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" t="s">
         <v>138</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4764,69 +5499,84 @@
         <v>142</v>
       </c>
       <c r="G6" t="s">
+        <v>663</v>
+      </c>
+      <c r="H6" t="s">
         <v>143</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>144</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>145</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>146</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>147</v>
       </c>
-      <c r="L6" t="s">
-        <v>148</v>
+      <c r="M6" t="s">
+        <v>125</v>
       </c>
       <c r="N6" t="s">
+        <v>670</v>
+      </c>
+      <c r="P6" t="s">
         <v>149</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>150</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>286</v>
+      </c>
+      <c r="U6" t="s">
         <v>151</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>152</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>153</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>154</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>155</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE6" t="s">
         <v>156</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>157</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>158</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AI6" t="s">
         <v>651</v>
       </c>
-      <c r="AF6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK6" t="s">
         <v>160</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>655</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
@@ -4834,67 +5584,79 @@
       <c r="F7" t="s">
         <v>163</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>664</v>
+      </c>
+      <c r="I7" t="s">
         <v>164</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>165</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>166</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>167</v>
       </c>
-      <c r="L7" t="s">
-        <v>608</v>
+      <c r="M7" t="s">
+        <v>148</v>
       </c>
       <c r="N7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P7" t="s">
         <v>42</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>168</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U7" t="s">
         <v>169</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>170</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>171</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>172</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>173</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>175</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>652</v>
       </c>
-      <c r="AF7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>778</v>
+      </c>
+      <c r="AK7" t="s">
         <v>178</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>180</v>
@@ -4902,64 +5664,73 @@
       <c r="F8" t="s">
         <v>181</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>182</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>640</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>184</v>
       </c>
-      <c r="L8" t="s">
-        <v>37</v>
+      <c r="M8" t="s">
+        <v>608</v>
       </c>
       <c r="N8" t="s">
+        <v>671</v>
+      </c>
+      <c r="P8" t="s">
         <v>186</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>187</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>684</v>
+      </c>
+      <c r="U8" t="s">
         <v>188</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>189</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>190</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>191</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>192</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE8" t="s">
         <v>193</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>194</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>195</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>653</v>
       </c>
-      <c r="AF8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK8" t="s">
         <v>197</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>199</v>
@@ -4967,1541 +5738,1870 @@
       <c r="F9" t="s">
         <v>200</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>201</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>183</v>
       </c>
-      <c r="L9" t="s">
-        <v>185</v>
+      <c r="M9" t="s">
+        <v>37</v>
       </c>
       <c r="N9" t="s">
+        <v>672</v>
+      </c>
+      <c r="P9" t="s">
         <v>204</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>205</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>302</v>
+      </c>
+      <c r="U9" t="s">
         <v>206</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>207</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>208</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>209</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE9" t="s">
         <v>211</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>212</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>654</v>
       </c>
-      <c r="AF9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>215</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>202</v>
       </c>
-      <c r="L10" t="s">
-        <v>203</v>
+      <c r="M10" t="s">
+        <v>185</v>
       </c>
       <c r="N10" t="s">
+        <v>673</v>
+      </c>
+      <c r="P10" t="s">
         <v>218</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>219</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>685</v>
+      </c>
+      <c r="U10" t="s">
         <v>220</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>221</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>222</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE10" t="s">
         <v>223</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>224</v>
       </c>
-      <c r="AF10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>227</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>228</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>216</v>
       </c>
-      <c r="L11" t="s">
-        <v>217</v>
+      <c r="M11" t="s">
+        <v>203</v>
       </c>
       <c r="N11" t="s">
+        <v>674</v>
+      </c>
+      <c r="P11" t="s">
         <v>231</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>232</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>307</v>
+      </c>
+      <c r="U11" t="s">
         <v>233</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>234</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE11" t="s">
         <v>235</v>
       </c>
-      <c r="AF11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>238</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>239</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>229</v>
       </c>
-      <c r="L12" t="s">
-        <v>230</v>
+      <c r="M12" t="s">
+        <v>217</v>
       </c>
       <c r="N12" t="s">
+        <v>675</v>
+      </c>
+      <c r="P12" t="s">
         <v>242</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>243</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>686</v>
+      </c>
+      <c r="U12" t="s">
         <v>244</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>245</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE12" t="s">
         <v>246</v>
       </c>
-      <c r="AF12" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>249</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>250</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>240</v>
       </c>
-      <c r="L13" t="s">
-        <v>241</v>
+      <c r="M13" t="s">
+        <v>230</v>
       </c>
       <c r="N13" t="s">
+        <v>676</v>
+      </c>
+      <c r="P13" t="s">
         <v>253</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>254</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>687</v>
+      </c>
+      <c r="U13" t="s">
         <v>255</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>615</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE13" t="s">
         <v>257</v>
       </c>
-      <c r="AF13" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>656</v>
       </c>
       <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>260</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>251</v>
       </c>
-      <c r="L14" t="s">
-        <v>252</v>
+      <c r="M14" t="s">
+        <v>241</v>
       </c>
       <c r="N14" t="s">
+        <v>677</v>
+      </c>
+      <c r="P14" t="s">
         <v>263</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>688</v>
+      </c>
+      <c r="U14" t="s">
         <v>264</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>256</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>733</v>
+      </c>
+      <c r="AE14" t="s">
         <v>266</v>
       </c>
-      <c r="AF14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>779</v>
+      </c>
+      <c r="AL14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>269</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>270</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>261</v>
       </c>
-      <c r="L15" t="s">
-        <v>262</v>
+      <c r="M15" t="s">
+        <v>252</v>
       </c>
       <c r="N15" t="s">
-        <v>273</v>
-      </c>
-      <c r="R15" t="s">
+        <v>678</v>
+      </c>
+      <c r="P15" t="s">
+        <v>680</v>
+      </c>
+      <c r="T15" t="s">
+        <v>689</v>
+      </c>
+      <c r="U15" t="s">
         <v>274</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>265</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE15" t="s">
         <v>276</v>
       </c>
-      <c r="AF15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>279</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>280</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>271</v>
       </c>
-      <c r="L16" t="s">
-        <v>272</v>
+      <c r="M16" t="s">
+        <v>262</v>
       </c>
       <c r="N16" t="s">
-        <v>283</v>
-      </c>
-      <c r="R16" t="s">
+        <v>679</v>
+      </c>
+      <c r="P16" t="s">
+        <v>273</v>
+      </c>
+      <c r="T16" t="s">
+        <v>690</v>
+      </c>
+      <c r="U16" t="s">
         <v>284</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>275</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>735</v>
+      </c>
+      <c r="AE16" t="s">
         <v>286</v>
       </c>
-      <c r="AF16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>289</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>290</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>281</v>
       </c>
-      <c r="L17" t="s">
-        <v>282</v>
-      </c>
-      <c r="N17" t="s">
-        <v>292</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" t="s">
+        <v>283</v>
+      </c>
+      <c r="T17" t="s">
+        <v>422</v>
+      </c>
+      <c r="V17" t="s">
         <v>285</v>
       </c>
-      <c r="AA17" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>764</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL17" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>297</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>298</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>641</v>
       </c>
-      <c r="L18" t="s">
-        <v>291</v>
-      </c>
-      <c r="N18" t="s">
-        <v>300</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" t="s">
+        <v>292</v>
+      </c>
+      <c r="T18" t="s">
+        <v>691</v>
+      </c>
+      <c r="V18" t="s">
         <v>293</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE18" t="s">
         <v>302</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL18" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>620</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>305</v>
       </c>
-      <c r="L19" t="s">
-        <v>299</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>291</v>
+      </c>
+      <c r="P19" t="s">
+        <v>300</v>
+      </c>
+      <c r="T19" t="s">
+        <v>692</v>
+      </c>
+      <c r="V19" t="s">
         <v>616</v>
       </c>
-      <c r="AA19" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>765</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL19" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>657</v>
       </c>
       <c r="F20" t="s">
         <v>621</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>310</v>
       </c>
-      <c r="L20" t="s">
-        <v>306</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>299</v>
+      </c>
+      <c r="T20" t="s">
+        <v>693</v>
+      </c>
+      <c r="V20" t="s">
         <v>301</v>
       </c>
-      <c r="AA20" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL20" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>304</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>315</v>
       </c>
-      <c r="L21" t="s">
-        <v>311</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>306</v>
+      </c>
+      <c r="T21" t="s">
+        <v>694</v>
+      </c>
+      <c r="V21" t="s">
         <v>617</v>
       </c>
-      <c r="AA21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>766</v>
+      </c>
+      <c r="AL21" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>309</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>320</v>
       </c>
-      <c r="L22" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>311</v>
+      </c>
+      <c r="T22" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>741</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL22" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>314</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>325</v>
       </c>
-      <c r="L23" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>316</v>
+      </c>
+      <c r="T23" t="s">
+        <v>696</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL23" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>319</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>330</v>
       </c>
-      <c r="L24" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>321</v>
+      </c>
+      <c r="T24" t="s">
+        <v>697</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>324</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>335</v>
       </c>
-      <c r="L25" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>326</v>
+      </c>
+      <c r="T25" t="s">
+        <v>698</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL25" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>329</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>622</v>
       </c>
-      <c r="L26" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>642</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>331</v>
+      </c>
+      <c r="T26" t="s">
+        <v>699</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL26" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>334</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>623</v>
       </c>
-      <c r="L27" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>336</v>
+      </c>
+      <c r="T27" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL27" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>339</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>340</v>
       </c>
-      <c r="L28" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>347</v>
+      <c r="M28" t="s">
+        <v>341</v>
+      </c>
+      <c r="T28" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>344</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>345</v>
       </c>
-      <c r="L29" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>352</v>
+      <c r="M29" t="s">
+        <v>346</v>
+      </c>
+      <c r="T29" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="F30" t="s">
         <v>349</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>350</v>
       </c>
-      <c r="L30" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>356</v>
+      <c r="M30" t="s">
+        <v>351</v>
+      </c>
+      <c r="T30" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>619</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>353</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>354</v>
       </c>
-      <c r="L31" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>360</v>
+      <c r="M31" t="s">
+        <v>355</v>
+      </c>
+      <c r="T31" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>357</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>358</v>
       </c>
-      <c r="L32" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>364</v>
+      <c r="M32" t="s">
+        <v>359</v>
+      </c>
+      <c r="T32" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>361</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>362</v>
       </c>
-      <c r="AA33" t="s">
-        <v>367</v>
+      <c r="M33" t="s">
+        <v>363</v>
+      </c>
+      <c r="T33" t="s">
+        <v>706</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>618</v>
       </c>
       <c r="F34" t="s">
         <v>365</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>366</v>
       </c>
-      <c r="AA34" t="s">
-        <v>370</v>
+      <c r="T34" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>619</v>
+      </c>
       <c r="F35" t="s">
         <v>368</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>369</v>
       </c>
-      <c r="AA35" t="s">
-        <v>373</v>
+      <c r="T35" t="s">
+        <v>707</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
       <c r="F36" t="s">
         <v>371</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>372</v>
       </c>
-      <c r="AA36" t="s">
-        <v>376</v>
+      <c r="T36" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
       <c r="F37" t="s">
         <v>374</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>375</v>
       </c>
-      <c r="AA37" t="s">
-        <v>379</v>
+      <c r="T37" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
       <c r="F38" t="s">
         <v>377</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>378</v>
       </c>
-      <c r="AA38" t="s">
-        <v>382</v>
+      <c r="T38" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>380</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>381</v>
       </c>
-      <c r="AA39" t="s">
-        <v>385</v>
+      <c r="T39" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>383</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>384</v>
       </c>
-      <c r="AA40" t="s">
-        <v>388</v>
+      <c r="T40" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>386</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>387</v>
       </c>
-      <c r="AA41" t="s">
-        <v>391</v>
+      <c r="T41" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>389</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>390</v>
       </c>
-      <c r="AA42" t="s">
-        <v>394</v>
+      <c r="T42" t="s">
+        <v>712</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>392</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>624</v>
       </c>
-      <c r="AA43" t="s">
-        <v>397</v>
+      <c r="T43" t="s">
+        <v>713</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>395</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>393</v>
       </c>
-      <c r="AA44" t="s">
-        <v>400</v>
+      <c r="T44" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>398</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>396</v>
       </c>
-      <c r="AA45" t="s">
-        <v>403</v>
+      <c r="T45" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>401</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>399</v>
       </c>
-      <c r="AA46" t="s">
-        <v>406</v>
+      <c r="T46" t="s">
+        <v>716</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>404</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>402</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>717</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>405</v>
+      </c>
+      <c r="T48" t="s">
+        <v>718</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>407</v>
+      </c>
+      <c r="T49" t="s">
+        <v>719</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>409</v>
+      </c>
+      <c r="T50" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="T51" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE51" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE52" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE53" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE54" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE55" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE56" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE57" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE58" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE59" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>627</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE60" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>628</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>665</v>
+      </c>
+      <c r="AE61" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE62" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE64" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE65" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE66" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE67" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE68" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE69" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE70" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE71" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE72" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>630</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE73" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE74" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE75" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE76" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>633</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE77" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE78" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE79" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE80" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE81" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE82" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE83" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE84" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE85" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE86" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE87" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE88" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>634</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE89" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>635</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE90" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE91" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE92" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE93" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE94" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>636</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE95" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE96" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE97" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE98" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE99" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE100" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE102" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE103" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE106" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE107" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>638</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE108" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE109" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE110" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE111" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE112" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>503</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE113" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
